--- a/top_5_motorbikes.xlsx
+++ b/top_5_motorbikes.xlsx
@@ -468,35 +468,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bajaj CT100 BRAND NEW 115 2025</t>
+          <t>Bajaj Discover 150 2011</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kurunegala, Motorbikes</t>
+          <t>Jaffna, Motorbikes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rs 117,000</t>
+          <t>Rs 165,000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://i.ikman-st.com/bajaj-ct100-brand-new-115-2025-for-sale-kurunegala-17/a7f073bb-aa19-4800-b831-b95245bd2ed9/142/107/cropped.jpg</t>
+          <t>https://i.ikman-st.com/bajaj-discover-150-2011-for-sale-jaffna-35/dd4e3a1e-e01b-48cc-bb1a-34e090eb71ae/142/107/cropped.jpg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://ikman.lk/en/ad/bajaj-ct100-brand-new-115-2025-for-sale-kurunegala-17</t>
+          <t>https://ikman.lk/en/ad/bajaj-discover-150-2011-for-sale-jaffna-35</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Honda Dio 2019</t>
+          <t>Bajaj CT100 2016</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -507,101 +507,101 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rs 173,000</t>
+          <t>Rs 380,000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://i.ikman-st.com/honda-dio-2019-for-sale-gampaha-3336/8697c59a-0b3c-492d-9886-24720f40dab1/142/107/cropped.jpg</t>
+          <t>https://i.ikman-st.com/bajaj-ct100-2016-for-sale-gampaha-1116/6393457a-9fe7-4140-b813-a1a1b96f7d36/142/107/cropped.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://ikman.lk/en/ad/honda-dio-2019-for-sale-gampaha-3336</t>
+          <t>https://ikman.lk/en/ad/bajaj-ct100-2016-for-sale-gampaha-1116</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ranomoto Pattaya 2017</t>
+          <t>Honda CD 200 Roadmaster 2008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vavuniya, Motorbikes</t>
+          <t>Mullativu, Motorbikes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rs 178,000</t>
+          <t>Rs 2,750,000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://i.ikman-st.com/ranomoto-pattaya-2017-for-sale-vavuniya-3/7c470f13-e26d-4919-9687-0ab585a72c70/142/107/cropped.jpg</t>
+          <t>https://i.ikman-st.com/honda-cd-200-cd200-roadmaster-2008-for-sale-mullativu/a8d0f112-579a-40ab-9e1b-bf4a9a095258/142/107/cropped.jpg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://ikman.lk/en/ad/ranomoto-pattaya-2017-for-sale-vavuniya-3</t>
+          <t>https://ikman.lk/en/ad/honda-cd-200-cd200-roadmaster-2008-for-sale-mullativu</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TVS IQUBE S 2025</t>
+          <t>Yamaha FZS V3 2020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gampaha, Motorbikes</t>
+          <t>Kurunegala, Motorbikes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rs 25,000</t>
+          <t>Rs 1,000,000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://i.ikman-st.com/tvs-iqube-s-2025-for-sale-gampaha/ddcada38-c93e-4131-9951-45fdecdc1898/142/107/cropped.jpg</t>
+          <t>https://i.ikman-st.com/yamaha-fzs-v3-2020-for-sale-kurunegala-6/b9059abb-dc26-4a80-9866-a18a1a001c86/142/107/cropped.jpg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://ikman.lk/en/ad/tvs-iqube-s-2025-for-sale-gampaha</t>
+          <t>https://ikman.lk/en/ad/yamaha-fzs-v3-2020-for-sale-kurunegala-6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bajaj CT100 BRAND NEW 110 2025</t>
+          <t>Bajaj Platina 2016</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kurunegala, Motorbikes</t>
+          <t>Colombo, Motorbikes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rs 117,000</t>
+          <t>Rs 180,000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://i.ikman-st.com/bajaj-ct100-brand-new-110-2025-for-sale-kurunegala-26/b6ec4464-a662-4924-8b27-8fe9b207ee4f/142/107/cropped.jpg</t>
+          <t>https://i.ikman-st.com/bajaj-platina-2016-for-sale-colombo-692/f6dd1e55-bc1a-463f-888d-1c5857b95af7/142/107/cropped.jpg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://ikman.lk/en/ad/bajaj-ct100-brand-new-110-2025-for-sale-kurunegala-26</t>
+          <t>https://ikman.lk/en/ad/bajaj-platina-2016-for-sale-colombo-692</t>
         </is>
       </c>
     </row>
